--- a/xlsx/新闻自由_intext.xlsx
+++ b/xlsx/新闻自由_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="586">
   <si>
     <t>新闻自由</t>
   </si>
@@ -29,7 +29,7 @@
     <t>自由</t>
   </si>
   <si>
-    <t>政策_政策_美國_新闻自由</t>
+    <t>政策_政策_美国_新闻自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%AF%E6%9E%81%E8%87%AA%E7%94%B1</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>權利</t>
+    <t>权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>經濟自由</t>
+    <t>经济自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%9C%AF%E8%87%AA%E7%94%B1</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>資訊自由</t>
+    <t>资讯自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E8%87%AA%E7%94%B1</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>言論自由</t>
+    <t>言论自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88%E8%87%AA%E7%94%B1</t>
@@ -125,25 +125,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>新聞自由</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%9C%83%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>集會自由</t>
+    <t>集会自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E7%A4%BE%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>結社自由</t>
+    <t>结社自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E5%AE%89%E9%82%A3%E6%B3%A2%E9%87%8C%E6%96%AF</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%AC%8A</t>
   </si>
   <si>
-    <t>集權</t>
+    <t>集权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F</t>
@@ -227,13 +224,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>意識形態</t>
+    <t>意识形态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%81%E6%9E%B6</t>
   </si>
   <si>
-    <t>綁架</t>
+    <t>绑架</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%97%E6%9D%80</t>
@@ -275,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%8B%9E%E7%A7%80%E5%A3%AB</t>
   </si>
   <si>
-    <t>格勞秀士</t>
+    <t>格劳秀士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%9D%83%E5%88%A9</t>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%AD%AF%E8%B5%AB%C2%B7%E6%96%AF%E8%B3%93%E8%AB%BE%E8%8E%8E</t>
   </si>
   <si>
-    <t>巴魯赫·斯賓諾莎</t>
+    <t>巴鲁赫·斯宾诺莎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%80%9D%E6%83%B3</t>
   </si>
   <si>
-    <t>啟蒙思想</t>
+    <t>启蒙思想</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9-%E9%9B%85%E5%85%8B%C2%B7%E5%8D%A2%E6%A2%AD</t>
@@ -341,25 +338,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2%E9%9A%8E%E7%B4%9A%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>資產階級革命</t>
+    <t>资产阶级革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%90%86%E8%A7%A3%E8%AB%96</t>
   </si>
   <si>
-    <t>人類理解論</t>
+    <t>人类理解论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B3%A9</t>
   </si>
   <si>
-    <t>孟德斯鳩</t>
+    <t>孟德斯鸠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%96%E6%B3%95%E7%9A%84%E7%B2%BE%E7%A5%9E</t>
   </si>
   <si>
-    <t>論法的精神</t>
+    <t>论法的精神</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6%E5%AE%B6</t>
@@ -389,13 +386,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%B2%AC%E4%BB%BB</t>
   </si>
   <si>
-    <t>社會責任</t>
+    <t>社会责任</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>人民主權</t>
+    <t>人民主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%9D%83%E5%88%86%E7%AB%8B</t>
@@ -413,13 +410,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E8%A5%BF%E6%96%AF%C2%B7%E6%89%98%E5%85%8B%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>亞歷西斯·托克維爾</t>
+    <t>亚历西斯·托克维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%9B%9B%E6%AC%8A</t>
   </si>
   <si>
-    <t>第四權</t>
+    <t>第四权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>新聞媒體</t>
+    <t>新闻媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
@@ -473,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
@@ -491,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E8%AD%BD</t>
   </si>
   <si>
-    <t>名譽</t>
+    <t>名誉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/gag_orders</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E4%BD%9C%E4%BA%BA</t>
   </si>
   <si>
-    <t>製作人</t>
+    <t>制作人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%90%9C%E7%B4%A2</t>
@@ -527,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>社會制度</t>
+    <t>社会制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83</t>
@@ -539,43 +536,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%80%A7%E5%B0%8A%E5%9A%B4</t>
   </si>
   <si>
-    <t>人性尊嚴</t>
+    <t>人性尊严</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%B9%E8%AC%97%E7%BD%AA</t>
   </si>
   <si>
-    <t>誹謗罪</t>
+    <t>诽谤罪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E8%9F%AC%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>寒蟬效應</t>
+    <t>寒蝉效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E5%AF%A6%E6%83%A1%E6%84%8F%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>真實惡意原則</t>
+    <t>真实恶意原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>財產權</t>
+    <t>财产权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E7%A7%81%E6%AC%8A</t>
   </si>
   <si>
-    <t>隱私權</t>
+    <t>隐私权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E6%94%BF%E9%A0%90%E7%AE%97%E6%A1%88</t>
   </si>
   <si>
-    <t>財政預算案</t>
+    <t>财政预算案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -653,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>資產階級</t>
+    <t>资产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
@@ -677,13 +674,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>英國內戰</t>
+    <t>英国内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%86%8A%E5%AD%90</t>
   </si>
   <si>
-    <t>小冊子</t>
+    <t>小册子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%BA%E5%87%BA%E7%89%88%E8%87%AA%E7%94%B1</t>
@@ -695,13 +692,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A0%E5%82%B5</t>
   </si>
   <si>
-    <t>欠債</t>
+    <t>欠债</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%80%86%E8%81%B7</t>
   </si>
   <si>
-    <t>瀆職</t>
+    <t>渎职</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%B3%95%E9%99%A2</t>
@@ -713,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>國會</t>
+    <t>国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9B%BE%E4%BA%9A%E7%89%B9%E7%8E%8B%E6%9C%9D</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>廣告</t>
+    <t>广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
@@ -797,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84%E8%B3%93%E6%B4%BE</t>
   </si>
   <si>
-    <t>雅各賓派</t>
+    <t>雅各宾派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E6%96%AF%E5%BA%87%E5%B0%94</t>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E8%BE%9F</t>
   </si>
   <si>
-    <t>復辟</t>
+    <t>复辟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E4%BB%91%C2%B7%E6%B3%A2%E6%8B%BF%E5%B7%B4</t>
@@ -893,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%B5%E5%B1%80</t>
   </si>
   <si>
-    <t>郵局</t>
+    <t>邮局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A1%BF</t>
@@ -905,13 +902,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%82%91%E6%98%8E%C2%B7%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97</t>
   </si>
   <si>
-    <t>本傑明·富蘭克林</t>
+    <t>本杰明·富兰克林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
   </si>
   <si>
-    <t>費城</t>
+    <t>费城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82</t>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
@@ -989,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E6%96%90%E9%80%8A</t>
@@ -1019,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>美國軍事</t>
+    <t>美国军事</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Clear_and_present_danger</t>
@@ -1037,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網際網路</t>
+    <t>网际网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -1073,7 +1070,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%94%91%E8%A6%96%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>蔑視法庭</t>
+    <t>蔑视法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E4%B8%BB%E4%B9%89</t>
@@ -1151,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E5%B8%9D%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>大日本帝國憲法</t>
+    <t>大日本帝国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%A4%A9%E7%9A%87</t>
@@ -1169,37 +1166,37 @@
     <t>https://ja.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E7%B4%99%E7%99%BA%E8%A1%8C%E6%9D%A1%E7%9B%AE</t>
   </si>
   <si>
-    <t>ja-新聞紙発行条目</t>
+    <t>ja-新闻纸発行条目</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E7%B4%99%E6%9D%A1%E4%BE%8B</t>
   </si>
   <si>
-    <t>ja-新聞紙条例</t>
+    <t>ja-新闻纸条例</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E7%B4%99%E6%B3%95</t>
   </si>
   <si>
-    <t>ja-新聞紙法</t>
+    <t>ja-新闻纸法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B%E6%9C%80%E9%AB%98%E5%8F%B8%E4%BB%A4%E5%AE%98%E7%B8%BD%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>同盟國最高司令官總司令部</t>
+    <t>同盟国最高司令官总司令部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>日本媒體</t>
+    <t>日本媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已開發國家</t>
+    <t>已开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%BA%E6%9D%83%E5%AE%A3%E8%A8%80</t>
@@ -1253,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
@@ -1325,7 +1322,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1361,7 +1358,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -1397,31 +1394,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E6%96%B0%E8%81%9E%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>中華人民共和國新聞自由</t>
+    <t>中华人民共和国新闻自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AE%E5%9C%8B</t>
   </si>
   <si>
-    <t>寮國</t>
+    <t>寮国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>朝鮮民主主義人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會主義國家</t>
+    <t>社会主义国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%94%BF%E5%BA%9C</t>
@@ -1433,31 +1424,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%8F%AF</t>
   </si>
   <si>
-    <t>反華</t>
+    <t>反华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%96%B0%E8%81%9E%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>香港新聞自由</t>
+    <t>香港新闻自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴爾幹半島</t>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6</t>
   </si>
   <si>
-    <t>摩爾多瓦</t>
+    <t>摩尔多瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -1469,31 +1460,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>中華民國總統</t>
+    <t>中华民国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E7%B6%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>蔣經國</t>
+    <t>蒋经国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E5%9A%B4</t>
   </si>
   <si>
-    <t>解嚴</t>
+    <t>解严</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>有線電視</t>
+    <t>有线电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -1511,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%97%8F%E8%87%AA%E6%B2%BB%E5%8D%80</t>
   </si>
   <si>
-    <t>西藏自治區</t>
+    <t>西藏自治区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -1559,13 +1550,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E8%80%85</t>
   </si>
   <si>
-    <t>記者</t>
+    <t>记者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9D%A2%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>地面電視</t>
+    <t>地面电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E6%98%9F%E7%94%B5%E8%A7%86</t>
@@ -1613,7 +1604,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%9D%E5%B0%8D%E5%85%AC%E7%9C%BE%E5%8F%83%E8%88%87%E7%9A%84%E7%AD%96%E7%95%A5%E6%80%A7%E8%A8%B4%E8%A8%9F</t>
   </si>
   <si>
-    <t>針對公眾參與的策略性訴訟</t>
+    <t>针对公众参与的策略性诉讼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%87%E6%89%A3%E6%8A%BC</t>
@@ -1625,7 +1616,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%AE%E5%85%A5%E6%80%A7%E8%A1%8C%E9%8A%B7</t>
   </si>
   <si>
-    <t>置入性行銷</t>
+    <t>置入性行销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E8%87%AA%E7%94%B1%E6%8E%A0%E5%A4%BA%E8%80%85</t>
@@ -1655,7 +1646,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>行銷獨裁</t>
+    <t>行销独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E5%AE%A1%E6%9F%A5</t>
@@ -1697,19 +1688,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%A9%E9%A8%B0%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>浩騰媒體</t>
+    <t>浩腾媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E9%90%B5</t>
   </si>
   <si>
-    <t>港鐵</t>
+    <t>港铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%87%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>假新聞</t>
+    <t>假新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1721,7 +1712,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B5%AA%E7%B6%B2</t>
   </si>
   <si>
-    <t>新浪網</t>
+    <t>新浪网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%AF%E4%BC%A0%E5%AA%92</t>
@@ -1733,7 +1724,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%B0%E7%81%A3%E6%96%B0%E8%81%9E%E9%80%B1%E5%88%8A</t>
   </si>
   <si>
-    <t>新台灣新聞週刊</t>
+    <t>新台湾新闻周刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E7%A4%BE</t>
@@ -1745,25 +1736,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%9A%E8%A8%8A%E7%A4%BE</t>
   </si>
   <si>
-    <t>中央通訊社</t>
+    <t>中央通讯社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%99%82%E5%A0%B1%E9%9B%BB%E5%AD%90%E5%A0%B1</t>
   </si>
   <si>
-    <t>自由時報電子報</t>
+    <t>自由时报电子报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>自由時報</t>
+    <t>自由时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1781,7 +1772,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2645,7 +2636,7 @@
         <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>163</v>
@@ -2671,10 +2662,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2700,10 +2691,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2729,10 +2720,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>15</v>
@@ -2758,10 +2749,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2787,10 +2778,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>87</v>
@@ -2816,10 +2807,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>20</v>
@@ -2845,10 +2836,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>162</v>
@@ -2874,10 +2865,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -2903,10 +2894,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -2932,10 +2923,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2961,10 +2952,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>20</v>
@@ -2990,10 +2981,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3019,10 +3010,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>10</v>
@@ -3048,10 +3039,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -3077,10 +3068,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -3106,10 +3097,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>4</v>
@@ -3135,10 +3126,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3164,10 +3155,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3193,10 +3184,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3222,10 +3213,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -3251,10 +3242,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>7</v>
@@ -3280,10 +3271,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>10</v>
@@ -3309,10 +3300,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -3338,10 +3329,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3367,10 +3358,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3396,10 +3387,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>7</v>
@@ -3425,10 +3416,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3454,10 +3445,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3483,10 +3474,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>13</v>
@@ -3512,10 +3503,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3541,10 +3532,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3570,10 +3561,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3599,10 +3590,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>16</v>
@@ -3628,10 +3619,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -3657,10 +3648,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>4</v>
@@ -3686,10 +3677,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -3744,10 +3735,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3773,10 +3764,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3802,10 +3793,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3831,10 +3822,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3860,10 +3851,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -3889,10 +3880,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3918,10 +3909,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>6</v>
@@ -3947,10 +3938,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3976,10 +3967,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -4005,10 +3996,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4034,10 +4025,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>4</v>
@@ -4063,10 +4054,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4092,10 +4083,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>17</v>
@@ -4121,10 +4112,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -4150,10 +4141,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4179,10 +4170,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4208,10 +4199,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4237,10 +4228,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4266,10 +4257,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4295,10 +4286,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>45</v>
@@ -4324,10 +4315,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4353,10 +4344,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4382,10 +4373,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>7</v>
@@ -4411,10 +4402,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4440,10 +4431,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4469,10 +4460,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4498,10 +4489,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4527,10 +4518,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4556,10 +4547,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -4585,10 +4576,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -4614,10 +4605,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4643,10 +4634,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4672,10 +4663,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4701,10 +4692,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>4</v>
@@ -4730,10 +4721,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4759,10 +4750,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4788,10 +4779,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4817,10 +4808,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4846,10 +4837,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4875,10 +4866,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4904,10 +4895,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4933,10 +4924,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4962,10 +4953,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>5</v>
@@ -4991,10 +4982,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5020,10 +5011,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5049,10 +5040,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5078,10 +5069,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5107,10 +5098,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5136,10 +5127,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5165,10 +5156,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5194,10 +5185,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5223,10 +5214,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -5252,10 +5243,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>92</v>
+      </c>
+      <c r="F108" t="s">
         <v>93</v>
-      </c>
-      <c r="F108" t="s">
-        <v>94</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -5281,10 +5272,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -5310,10 +5301,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5339,10 +5330,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5368,10 +5359,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5397,10 +5388,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -5426,10 +5417,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
-      </c>
-      <c r="F114" t="s">
-        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -5455,10 +5446,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5484,10 +5475,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" t="s">
         <v>227</v>
-      </c>
-      <c r="F116" t="s">
-        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5513,10 +5504,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" t="s">
         <v>229</v>
-      </c>
-      <c r="F117" t="s">
-        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5542,10 +5533,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" t="s">
         <v>231</v>
-      </c>
-      <c r="F118" t="s">
-        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>7</v>
@@ -5571,10 +5562,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" t="s">
         <v>233</v>
-      </c>
-      <c r="F119" t="s">
-        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5600,10 +5591,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>234</v>
+      </c>
+      <c r="F120" t="s">
         <v>235</v>
-      </c>
-      <c r="F120" t="s">
-        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5629,10 +5620,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>236</v>
+      </c>
+      <c r="F121" t="s">
         <v>237</v>
-      </c>
-      <c r="F121" t="s">
-        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5658,10 +5649,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" t="s">
         <v>239</v>
-      </c>
-      <c r="F122" t="s">
-        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5687,10 +5678,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" t="s">
         <v>241</v>
-      </c>
-      <c r="F123" t="s">
-        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5716,10 +5707,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>242</v>
+      </c>
+      <c r="F124" t="s">
         <v>243</v>
-      </c>
-      <c r="F124" t="s">
-        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>4</v>
@@ -5745,10 +5736,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" t="s">
         <v>245</v>
-      </c>
-      <c r="F125" t="s">
-        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5774,10 +5765,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>246</v>
+      </c>
+      <c r="F126" t="s">
         <v>247</v>
-      </c>
-      <c r="F126" t="s">
-        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5803,10 +5794,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>248</v>
+      </c>
+      <c r="F127" t="s">
         <v>249</v>
-      </c>
-      <c r="F127" t="s">
-        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5832,10 +5823,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>250</v>
+      </c>
+      <c r="F128" t="s">
         <v>251</v>
-      </c>
-      <c r="F128" t="s">
-        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>6</v>
@@ -5861,10 +5852,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" t="s">
         <v>253</v>
-      </c>
-      <c r="F129" t="s">
-        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5890,10 +5881,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>254</v>
+      </c>
+      <c r="F130" t="s">
         <v>255</v>
-      </c>
-      <c r="F130" t="s">
-        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5919,10 +5910,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>256</v>
+      </c>
+      <c r="F131" t="s">
         <v>257</v>
-      </c>
-      <c r="F131" t="s">
-        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5948,10 +5939,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>258</v>
+      </c>
+      <c r="F132" t="s">
         <v>259</v>
-      </c>
-      <c r="F132" t="s">
-        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5977,10 +5968,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>260</v>
+      </c>
+      <c r="F133" t="s">
         <v>261</v>
-      </c>
-      <c r="F133" t="s">
-        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6006,10 +5997,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>262</v>
+      </c>
+      <c r="F134" t="s">
         <v>263</v>
-      </c>
-      <c r="F134" t="s">
-        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -6035,10 +6026,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>264</v>
+      </c>
+      <c r="F135" t="s">
         <v>265</v>
-      </c>
-      <c r="F135" t="s">
-        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6064,10 +6055,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>266</v>
+      </c>
+      <c r="F136" t="s">
         <v>267</v>
-      </c>
-      <c r="F136" t="s">
-        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>4</v>
@@ -6093,10 +6084,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>268</v>
+      </c>
+      <c r="F137" t="s">
         <v>269</v>
-      </c>
-      <c r="F137" t="s">
-        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>4</v>
@@ -6122,10 +6113,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>270</v>
+      </c>
+      <c r="F138" t="s">
         <v>271</v>
-      </c>
-      <c r="F138" t="s">
-        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6151,10 +6142,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139" t="s">
         <v>273</v>
-      </c>
-      <c r="F139" t="s">
-        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6180,10 +6171,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>274</v>
+      </c>
+      <c r="F140" t="s">
         <v>275</v>
-      </c>
-      <c r="F140" t="s">
-        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6209,10 +6200,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
-      </c>
-      <c r="F141" t="s">
-        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>15</v>
@@ -6238,10 +6229,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>4</v>
@@ -6267,10 +6258,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>9</v>
@@ -6296,10 +6287,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
-      </c>
-      <c r="F144" t="s">
-        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6325,10 +6316,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -6354,10 +6345,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" t="s">
         <v>287</v>
-      </c>
-      <c r="F146" t="s">
-        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6383,10 +6374,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
         <v>289</v>
-      </c>
-      <c r="F147" t="s">
-        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6412,10 +6403,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>290</v>
+      </c>
+      <c r="F148" t="s">
         <v>291</v>
-      </c>
-      <c r="F148" t="s">
-        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6441,10 +6432,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" t="s">
         <v>293</v>
-      </c>
-      <c r="F149" t="s">
-        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6470,10 +6461,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>294</v>
+      </c>
+      <c r="F150" t="s">
         <v>295</v>
-      </c>
-      <c r="F150" t="s">
-        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6499,10 +6490,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>296</v>
+      </c>
+      <c r="F151" t="s">
         <v>297</v>
-      </c>
-      <c r="F151" t="s">
-        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6528,10 +6519,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>148</v>
+      </c>
+      <c r="F152" t="s">
         <v>149</v>
-      </c>
-      <c r="F152" t="s">
-        <v>150</v>
       </c>
       <c r="G152" t="n">
         <v>5</v>
@@ -6557,10 +6548,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" t="s">
-        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6586,10 +6577,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>300</v>
+      </c>
+      <c r="F154" t="s">
         <v>301</v>
-      </c>
-      <c r="F154" t="s">
-        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6615,10 +6606,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F155" t="s">
         <v>303</v>
-      </c>
-      <c r="F155" t="s">
-        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>6</v>
@@ -6644,10 +6635,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>305</v>
-      </c>
-      <c r="F156" t="s">
-        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6673,10 +6664,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6702,10 +6693,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6731,10 +6722,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>134</v>
+      </c>
+      <c r="F159" t="s">
         <v>135</v>
-      </c>
-      <c r="F159" t="s">
-        <v>136</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6760,10 +6751,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>310</v>
+      </c>
+      <c r="F160" t="s">
         <v>311</v>
-      </c>
-      <c r="F160" t="s">
-        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6789,10 +6780,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>312</v>
+      </c>
+      <c r="F161" t="s">
         <v>313</v>
-      </c>
-      <c r="F161" t="s">
-        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -6818,10 +6809,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>314</v>
+      </c>
+      <c r="F162" t="s">
         <v>315</v>
-      </c>
-      <c r="F162" t="s">
-        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6847,10 +6838,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>316</v>
+      </c>
+      <c r="F163" t="s">
         <v>317</v>
-      </c>
-      <c r="F163" t="s">
-        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6876,10 +6867,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>318</v>
+      </c>
+      <c r="F164" t="s">
         <v>319</v>
-      </c>
-      <c r="F164" t="s">
-        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6905,10 +6896,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>320</v>
+      </c>
+      <c r="F165" t="s">
         <v>321</v>
-      </c>
-      <c r="F165" t="s">
-        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>10</v>
@@ -6934,10 +6925,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>322</v>
+      </c>
+      <c r="F166" t="s">
         <v>323</v>
-      </c>
-      <c r="F166" t="s">
-        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6963,10 +6954,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>324</v>
+      </c>
+      <c r="F167" t="s">
         <v>325</v>
-      </c>
-      <c r="F167" t="s">
-        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6992,10 +6983,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>326</v>
+      </c>
+      <c r="F168" t="s">
         <v>327</v>
-      </c>
-      <c r="F168" t="s">
-        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7021,10 +7012,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>328</v>
+      </c>
+      <c r="F169" t="s">
         <v>329</v>
-      </c>
-      <c r="F169" t="s">
-        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7050,10 +7041,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>330</v>
+      </c>
+      <c r="F170" t="s">
         <v>331</v>
-      </c>
-      <c r="F170" t="s">
-        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7079,10 +7070,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>332</v>
+      </c>
+      <c r="F171" t="s">
         <v>333</v>
-      </c>
-      <c r="F171" t="s">
-        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7108,10 +7099,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>334</v>
+      </c>
+      <c r="F172" t="s">
         <v>335</v>
-      </c>
-      <c r="F172" t="s">
-        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7137,10 +7128,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>336</v>
+      </c>
+      <c r="F173" t="s">
         <v>337</v>
-      </c>
-      <c r="F173" t="s">
-        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7166,10 +7157,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>338</v>
+      </c>
+      <c r="F174" t="s">
         <v>339</v>
-      </c>
-      <c r="F174" t="s">
-        <v>340</v>
       </c>
       <c r="G174" t="n">
         <v>8</v>
@@ -7195,10 +7186,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>340</v>
+      </c>
+      <c r="F175" t="s">
         <v>341</v>
-      </c>
-      <c r="F175" t="s">
-        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>7</v>
@@ -7224,10 +7215,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>342</v>
+      </c>
+      <c r="F176" t="s">
         <v>343</v>
-      </c>
-      <c r="F176" t="s">
-        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7253,10 +7244,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>344</v>
+      </c>
+      <c r="F177" t="s">
         <v>345</v>
-      </c>
-      <c r="F177" t="s">
-        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7282,10 +7273,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>346</v>
+      </c>
+      <c r="F178" t="s">
         <v>347</v>
-      </c>
-      <c r="F178" t="s">
-        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7311,10 +7302,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>348</v>
+      </c>
+      <c r="F179" t="s">
         <v>349</v>
-      </c>
-      <c r="F179" t="s">
-        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7340,10 +7331,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>350</v>
+      </c>
+      <c r="F180" t="s">
         <v>351</v>
-      </c>
-      <c r="F180" t="s">
-        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7369,10 +7360,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>352</v>
+      </c>
+      <c r="F181" t="s">
         <v>353</v>
-      </c>
-      <c r="F181" t="s">
-        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7398,10 +7389,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>354</v>
+      </c>
+      <c r="F182" t="s">
         <v>355</v>
-      </c>
-      <c r="F182" t="s">
-        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7427,10 +7418,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>356</v>
+      </c>
+      <c r="F183" t="s">
         <v>357</v>
-      </c>
-      <c r="F183" t="s">
-        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7456,10 +7447,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>358</v>
+      </c>
+      <c r="F184" t="s">
         <v>359</v>
-      </c>
-      <c r="F184" t="s">
-        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>4</v>
@@ -7485,10 +7476,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>360</v>
+      </c>
+      <c r="F185" t="s">
         <v>361</v>
-      </c>
-      <c r="F185" t="s">
-        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>7</v>
@@ -7514,10 +7505,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>362</v>
+      </c>
+      <c r="F186" t="s">
         <v>363</v>
-      </c>
-      <c r="F186" t="s">
-        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7543,10 +7534,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>364</v>
+      </c>
+      <c r="F187" t="s">
         <v>365</v>
-      </c>
-      <c r="F187" t="s">
-        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7572,10 +7563,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>366</v>
+      </c>
+      <c r="F188" t="s">
         <v>367</v>
-      </c>
-      <c r="F188" t="s">
-        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7601,10 +7592,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>368</v>
+      </c>
+      <c r="F189" t="s">
         <v>369</v>
-      </c>
-      <c r="F189" t="s">
-        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7630,10 +7621,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>370</v>
+      </c>
+      <c r="F190" t="s">
         <v>371</v>
-      </c>
-      <c r="F190" t="s">
-        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7659,10 +7650,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>372</v>
+      </c>
+      <c r="F191" t="s">
         <v>373</v>
-      </c>
-      <c r="F191" t="s">
-        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7688,10 +7679,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>374</v>
+      </c>
+      <c r="F192" t="s">
         <v>375</v>
-      </c>
-      <c r="F192" t="s">
-        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7717,10 +7708,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>376</v>
+      </c>
+      <c r="F193" t="s">
         <v>377</v>
-      </c>
-      <c r="F193" t="s">
-        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7746,10 +7737,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>378</v>
+      </c>
+      <c r="F194" t="s">
         <v>379</v>
-      </c>
-      <c r="F194" t="s">
-        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -7775,10 +7766,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>380</v>
+      </c>
+      <c r="F195" t="s">
         <v>381</v>
-      </c>
-      <c r="F195" t="s">
-        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7804,10 +7795,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>382</v>
+      </c>
+      <c r="F196" t="s">
         <v>383</v>
-      </c>
-      <c r="F196" t="s">
-        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7833,10 +7824,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>384</v>
+      </c>
+      <c r="F197" t="s">
         <v>385</v>
-      </c>
-      <c r="F197" t="s">
-        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7862,10 +7853,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>386</v>
+      </c>
+      <c r="F198" t="s">
         <v>387</v>
-      </c>
-      <c r="F198" t="s">
-        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7891,10 +7882,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>388</v>
+      </c>
+      <c r="F199" t="s">
         <v>389</v>
-      </c>
-      <c r="F199" t="s">
-        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7920,10 +7911,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>390</v>
+      </c>
+      <c r="F200" t="s">
         <v>391</v>
-      </c>
-      <c r="F200" t="s">
-        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7949,10 +7940,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>392</v>
+      </c>
+      <c r="F201" t="s">
         <v>393</v>
-      </c>
-      <c r="F201" t="s">
-        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7978,10 +7969,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>394</v>
+      </c>
+      <c r="F202" t="s">
         <v>395</v>
-      </c>
-      <c r="F202" t="s">
-        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8007,10 +7998,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>396</v>
+      </c>
+      <c r="F203" t="s">
         <v>397</v>
-      </c>
-      <c r="F203" t="s">
-        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>20</v>
@@ -8036,10 +8027,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>398</v>
+      </c>
+      <c r="F204" t="s">
         <v>399</v>
-      </c>
-      <c r="F204" t="s">
-        <v>400</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8065,10 +8056,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>400</v>
+      </c>
+      <c r="F205" t="s">
         <v>401</v>
-      </c>
-      <c r="F205" t="s">
-        <v>402</v>
       </c>
       <c r="G205" t="n">
         <v>7</v>
@@ -8094,10 +8085,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>402</v>
+      </c>
+      <c r="F206" t="s">
         <v>403</v>
-      </c>
-      <c r="F206" t="s">
-        <v>404</v>
       </c>
       <c r="G206" t="n">
         <v>36</v>
@@ -8123,10 +8114,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>58</v>
+      </c>
+      <c r="F207" t="s">
         <v>59</v>
-      </c>
-      <c r="F207" t="s">
-        <v>60</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8152,10 +8143,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>60</v>
+      </c>
+      <c r="F208" t="s">
         <v>61</v>
-      </c>
-      <c r="F208" t="s">
-        <v>62</v>
       </c>
       <c r="G208" t="n">
         <v>8</v>
@@ -8181,10 +8172,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>404</v>
+      </c>
+      <c r="F209" t="s">
         <v>405</v>
-      </c>
-      <c r="F209" t="s">
-        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>3</v>
@@ -8210,10 +8201,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>406</v>
+      </c>
+      <c r="F210" t="s">
         <v>407</v>
-      </c>
-      <c r="F210" t="s">
-        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8239,10 +8230,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>408</v>
+      </c>
+      <c r="F211" t="s">
         <v>409</v>
-      </c>
-      <c r="F211" t="s">
-        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8268,10 +8259,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>410</v>
+      </c>
+      <c r="F212" t="s">
         <v>411</v>
-      </c>
-      <c r="F212" t="s">
-        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>4</v>
@@ -8297,10 +8288,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>412</v>
+      </c>
+      <c r="F213" t="s">
         <v>413</v>
-      </c>
-      <c r="F213" t="s">
-        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8326,10 +8317,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>414</v>
+      </c>
+      <c r="F214" t="s">
         <v>415</v>
-      </c>
-      <c r="F214" t="s">
-        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8355,10 +8346,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>416</v>
+      </c>
+      <c r="F215" t="s">
         <v>417</v>
-      </c>
-      <c r="F215" t="s">
-        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8384,10 +8375,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>418</v>
+      </c>
+      <c r="F216" t="s">
         <v>419</v>
-      </c>
-      <c r="F216" t="s">
-        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8413,10 +8404,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>420</v>
+      </c>
+      <c r="F217" t="s">
         <v>421</v>
-      </c>
-      <c r="F217" t="s">
-        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8442,10 +8433,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>422</v>
+      </c>
+      <c r="F218" t="s">
         <v>423</v>
-      </c>
-      <c r="F218" t="s">
-        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8471,10 +8462,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>424</v>
+      </c>
+      <c r="F219" t="s">
         <v>425</v>
-      </c>
-      <c r="F219" t="s">
-        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8500,10 +8491,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>426</v>
+      </c>
+      <c r="F220" t="s">
         <v>427</v>
-      </c>
-      <c r="F220" t="s">
-        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8529,10 +8520,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>428</v>
+      </c>
+      <c r="F221" t="s">
         <v>429</v>
-      </c>
-      <c r="F221" t="s">
-        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8558,10 +8549,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>430</v>
+      </c>
+      <c r="F222" t="s">
         <v>431</v>
-      </c>
-      <c r="F222" t="s">
-        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8587,10 +8578,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>432</v>
+      </c>
+      <c r="F223" t="s">
         <v>433</v>
-      </c>
-      <c r="F223" t="s">
-        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8616,10 +8607,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>434</v>
+      </c>
+      <c r="F224" t="s">
         <v>435</v>
-      </c>
-      <c r="F224" t="s">
-        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8645,10 +8636,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>436</v>
+      </c>
+      <c r="F225" t="s">
         <v>437</v>
-      </c>
-      <c r="F225" t="s">
-        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -8674,10 +8665,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>438</v>
+      </c>
+      <c r="F226" t="s">
         <v>439</v>
-      </c>
-      <c r="F226" t="s">
-        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -8703,10 +8694,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>440</v>
+      </c>
+      <c r="F227" t="s">
         <v>441</v>
-      </c>
-      <c r="F227" t="s">
-        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -8732,10 +8723,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>442</v>
+      </c>
+      <c r="F228" t="s">
         <v>443</v>
-      </c>
-      <c r="F228" t="s">
-        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8761,10 +8752,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>444</v>
+      </c>
+      <c r="F229" t="s">
         <v>445</v>
-      </c>
-      <c r="F229" t="s">
-        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>11</v>
@@ -8790,10 +8781,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>446</v>
+      </c>
+      <c r="F230" t="s">
         <v>447</v>
-      </c>
-      <c r="F230" t="s">
-        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>3</v>
@@ -8819,10 +8810,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>448</v>
+      </c>
+      <c r="F231" t="s">
         <v>449</v>
-      </c>
-      <c r="F231" t="s">
-        <v>450</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -8848,10 +8839,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>450</v>
+      </c>
+      <c r="F232" t="s">
         <v>451</v>
-      </c>
-      <c r="F232" t="s">
-        <v>452</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8877,10 +8868,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>452</v>
+      </c>
+      <c r="F233" t="s">
         <v>453</v>
-      </c>
-      <c r="F233" t="s">
-        <v>454</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -8906,10 +8897,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>50</v>
+      </c>
+      <c r="F234" t="s">
         <v>51</v>
-      </c>
-      <c r="F234" t="s">
-        <v>52</v>
       </c>
       <c r="G234" t="n">
         <v>13</v>
@@ -8935,10 +8926,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>454</v>
+      </c>
+      <c r="F235" t="s">
         <v>455</v>
-      </c>
-      <c r="F235" t="s">
-        <v>456</v>
       </c>
       <c r="G235" t="n">
         <v>9</v>
@@ -8964,10 +8955,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>456</v>
+      </c>
+      <c r="F236" t="s">
         <v>457</v>
-      </c>
-      <c r="F236" t="s">
-        <v>458</v>
       </c>
       <c r="G236" t="n">
         <v>3</v>
@@ -8993,10 +8984,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>458</v>
+      </c>
+      <c r="F237" t="s">
         <v>459</v>
-      </c>
-      <c r="F237" t="s">
-        <v>460</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9022,10 +9013,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F238" t="s">
-        <v>462</v>
+        <v>411</v>
       </c>
       <c r="G238" t="n">
         <v>5</v>
@@ -9051,10 +9042,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F239" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9080,10 +9071,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F240" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9109,10 +9100,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F241" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9138,10 +9129,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F242" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9167,10 +9158,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F243" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9196,10 +9187,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F244" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9225,10 +9216,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>444</v>
+      </c>
+      <c r="F245" t="s">
         <v>445</v>
-      </c>
-      <c r="F245" t="s">
-        <v>446</v>
       </c>
       <c r="G245" t="n">
         <v>9</v>
@@ -9254,10 +9245,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9283,10 +9274,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9312,10 +9303,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9341,10 +9332,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G249" t="n">
         <v>3</v>
@@ -9370,10 +9361,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F250" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9399,10 +9390,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F251" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9428,10 +9419,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9457,10 +9448,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9489,7 +9480,7 @@
         <v>35</v>
       </c>
       <c r="F254" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G254" t="n">
         <v>88</v>
@@ -9515,10 +9506,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F255" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9544,10 +9535,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F256" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9573,10 +9564,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F257" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9602,10 +9593,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F258" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9631,10 +9622,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F259" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9660,10 +9651,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F260" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9689,10 +9680,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F261" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9718,10 +9709,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F262" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9747,10 +9738,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F263" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9776,10 +9767,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F264" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9805,10 +9796,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F265" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9834,10 +9825,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G266" t="n">
         <v>3</v>
@@ -9863,10 +9854,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F267" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -9892,10 +9883,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F268" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G268" t="n">
         <v>3</v>
@@ -9921,10 +9912,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9950,10 +9941,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F270" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9979,10 +9970,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F271" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10008,10 +9999,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F272" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -10037,10 +10028,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F273" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G273" t="n">
         <v>3</v>
@@ -10066,10 +10057,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F274" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10095,10 +10086,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F275" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10124,10 +10115,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F276" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10153,10 +10144,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F277" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10182,10 +10173,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F278" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10211,10 +10202,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F279" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10240,10 +10231,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F280" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10269,10 +10260,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F281" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G281" t="n">
         <v>3</v>
@@ -10298,10 +10289,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F282" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10327,10 +10318,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F283" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10356,10 +10347,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F284" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10385,10 +10376,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F285" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10414,10 +10405,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F286" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10443,10 +10434,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F287" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10472,10 +10463,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F288" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10501,10 +10492,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F289" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10530,10 +10521,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F290" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10559,10 +10550,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F291" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10588,10 +10579,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F292" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
@@ -10617,10 +10608,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F293" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10646,10 +10637,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F294" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10675,10 +10666,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F295" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10704,10 +10695,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F296" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10733,10 +10724,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F297" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -10762,10 +10753,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F298" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10791,10 +10782,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F299" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -10820,10 +10811,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F300" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G300" t="n">
         <v>3</v>
@@ -10849,10 +10840,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F301" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10878,10 +10869,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F302" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10907,10 +10898,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F303" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>

--- a/xlsx/新闻自由_intext.xlsx
+++ b/xlsx/新闻自由_intext.xlsx
@@ -29,7 +29,7 @@
     <t>自由</t>
   </si>
   <si>
-    <t>政策_政策_美國_新闻自由</t>
+    <t>体育运动_体育运动_纳粹德国_新闻自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%AF%E6%9E%81%E8%87%AA%E7%94%B1</t>
